--- a/GPos_GanttChart.xlsx
+++ b/GPos_GanttChart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김재웅\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gd3-8\Documents\GPos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>활동</t>
   </si>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>프로젝트 플래너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +421,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0E03EF"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -737,7 +741,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,6 +808,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -825,6 +895,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -849,79 +922,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -946,7 +956,233 @@
     <cellStyle name="프로젝트 머리글" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="활동" xfId="2" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1562,20 +1798,22 @@
   <dimension ref="B1:AN14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="5.19921875" style="1" customWidth="1"/>
-    <col min="28" max="40" width="5.19921875" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="5.25" style="1" customWidth="1"/>
+    <col min="28" max="40" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="2:40" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="B1" s="9" t="s">
         <v>59</v>
       </c>
@@ -1618,74 +1856,74 @@
       <c r="AM1" s="12"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="2:40" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="54"/>
+    <row r="2" spans="2:40" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="54"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="33"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="56"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="59"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
     </row>
-    <row r="3" spans="2:40" s="4" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:40" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="51" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1695,7 +1933,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -1724,114 +1962,114 @@
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
     </row>
-    <row r="4" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="52" t="s">
+    <row r="4" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="52" t="s">
+      <c r="X4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="52" t="s">
+      <c r="AA4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="52" t="s">
+      <c r="AB4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="52" t="s">
+      <c r="AD4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="52" t="s">
+      <c r="AE4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AF4" s="52" t="s">
+      <c r="AF4" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="52" t="s">
+      <c r="AG4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AH4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="52" t="s">
+      <c r="AI4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AJ4" s="52" t="s">
+      <c r="AJ4" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="52" t="s">
+      <c r="AK4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AL4" s="52" t="s">
+      <c r="AL4" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AM4" s="52" t="s">
+      <c r="AM4" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AN4" s="52" t="s">
+      <c r="AN4" s="37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1841,50 +2079,50 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="62">
         <v>1</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="39"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="38"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="37"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="20"/>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="22"/>
       <c r="R5" s="20"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
     </row>
-    <row r="6" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1894,44 +2132,50 @@
       <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
+      <c r="E6" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="62">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
     </row>
-    <row r="7" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1944,45 +2188,45 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="45"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="45"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
     </row>
-    <row r="8" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="6">
@@ -1991,41 +2235,41 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="44"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
     </row>
-    <row r="9" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -2038,41 +2282,41 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="45"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
     </row>
-    <row r="10" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
@@ -2085,41 +2329,41 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
     </row>
-    <row r="11" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
@@ -2132,41 +2376,41 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="45"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
     </row>
-    <row r="12" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
@@ -2179,45 +2423,45 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="46"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
     </row>
-    <row r="13" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:40" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="40" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="6">
@@ -2226,80 +2470,80 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="42"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="27"/>
     </row>
-    <row r="14" spans="2:40" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:40" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="44"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="37"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="20"/>
-      <c r="O14" s="37"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="20"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2318,42 +2562,94 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M5 H5:H7 H8:I14 K12:K14 T5:AN8 T14:AN14 AL9:AN12 T13:AK13">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>완료율</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="19">
+    <cfRule type="expression" dxfId="40" priority="35">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>실제</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>계획</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="34" priority="44">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:AN15">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AN4">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>완료율</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>실제</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>계획</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>AL$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN13">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>완료율</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>실제</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>계획</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>AN$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>완료율</formula>
     </cfRule>
@@ -2370,7 +2666,7 @@
       <formula>계획</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>AL$4=period_selected</formula>
+      <formula>M$4=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
@@ -2379,7 +2675,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN13">
+  <conditionalFormatting sqref="M7">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>완료율</formula>
     </cfRule>
@@ -2396,7 +2692,7 @@
       <formula>계획</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AN$4=period_selected</formula>
+      <formula>M$4=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
@@ -2408,10 +2704,10 @@
   <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="P2 J6:L6 M7:P7 Q8:S8 T9:AK12 AL13:AM13" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="U2 I5" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="P2 AL13:AM13 T9:AK12 Q8:S8" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="U2 I5 J6:L6 O7:P7" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서는 실제 기간을 나타냅니다." sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AH2 O6" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5부터 시작하여 B 열에 활동을 입력합니다._x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>

--- a/GPos_GanttChart.xlsx
+++ b/GPos_GanttChart.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gd3-8\Documents\GPos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gd3-2\Documents\GPos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -874,6 +874,18 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -921,18 +933,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1798,7 +1798,7 @@
   <dimension ref="B1:AN14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="B5" sqref="B5:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1857,73 +1857,73 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="2:40" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="38"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="54"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="58"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="56"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="60"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="57" t="s">
+      <c r="AA2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="59"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="63"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="2:40" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="55" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1963,12 +1963,12 @@
       <c r="AN3" s="21"/>
     </row>
     <row r="4" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="37" t="s">
         <v>16</v>
       </c>
@@ -2079,10 +2079,10 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="46">
         <v>1</v>
       </c>
       <c r="G5" s="8">
@@ -2132,10 +2132,10 @@
       <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="46">
         <v>4</v>
       </c>
       <c r="G6" s="8">
@@ -2150,7 +2150,7 @@
       <c r="N6" s="33"/>
       <c r="O6" s="17"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="60"/>
+      <c r="Q6" s="44"/>
       <c r="R6" s="33"/>
       <c r="S6" s="34"/>
       <c r="T6" s="35"/>
@@ -2244,9 +2244,9 @@
       <c r="N8" s="33"/>
       <c r="O8" s="34"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="42"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
@@ -2704,8 +2704,8 @@
   <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="P2 AL13:AM13 T9:AK12 Q8:S8" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="U2 I5 J6:L6 O7:P7" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="P2 AL13:AM13 T9:AK12" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="U2 I5 J6:L6 O7:P7 Q8:S8" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서는 실제 기간을 나타냅니다." sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AH2 O6" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
